--- a/docs/jig/booking/business-rule.xlsx
+++ b/docs/jig/booking/business-rule.xlsx
@@ -129,7 +129,8 @@
     <t>BookingAmount</t>
   </si>
   <si>
-    <t>Domain model representation of the Booking Amount for a new Cargo.</t>
+    <t xml:space="preserve">Domain model representation of the Booking Amount for a new Cargo.+</t>
   </si>
   <si>
     <t>数値</t>
@@ -141,7 +142,8 @@
     <t>CargoHandlingActivity</t>
   </si>
   <si>
-    <t>A handling activity represents how and where a cargo can be handled, and can</t>
+    <t xml:space="preserve">A handling activity represents how and where a cargo can be handled, and can+</t>
   </si>
   <si>
     <t>◯</t>
@@ -420,9 +422,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.6953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.2265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -494,16 +496,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.6953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.0625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="61.26953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.71484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="7.75390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="19.87890625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="86.37109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="63.859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="7.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.66796875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.9296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="89.96484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1032,16 +1034,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.6953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="54.1796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.08203125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.55078125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.390625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="4.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.7421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="58.16796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.6953125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.9296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.9296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="2.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1154,14 +1156,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.6953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.83203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="61.79296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="17.35546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.42578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.3515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="64.48828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="17.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1230,13 +1232,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.6953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.04296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.95703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.09375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="9.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1345,18 +1347,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.6953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.0625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="45.40625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.1328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="55.34765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="21.4609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="22.24609375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="15.921875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.1328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="47.94140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.7421875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="57.84375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.9296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.12890625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="12.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="10.3515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/jig/booking/business-rule.xlsx
+++ b/docs/jig/booking/business-rule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="127">
   <si>
     <t/>
   </si>
@@ -42,15 +42,27 @@
     <t>com.practicalddd.cargotracker.booking.domain.model.aggregates</t>
   </si>
   <si>
+    <t>集約</t>
+  </si>
+  <si>
     <t>com.practicalddd.cargotracker.booking.domain.model.commands</t>
   </si>
   <si>
+    <t>コマンド</t>
+  </si>
+  <si>
     <t>com.practicalddd.cargotracker.booking.domain.model.entities</t>
   </si>
   <si>
+    <t>エンティティ</t>
+  </si>
+  <si>
     <t>com.practicalddd.cargotracker.booking.domain.model.valueobjects</t>
   </si>
   <si>
+    <t>値オブジェクト</t>
+  </si>
+  <si>
     <t>クラス名</t>
   </si>
   <si>
@@ -81,7 +93,8 @@
     <t>BookingId</t>
   </si>
   <si>
-    <t>Aggregate Identifier for the Cargo Aggregate</t>
+    <t xml:space="preserve">予約ID+</t>
   </si>
   <si>
     <t>文字列</t>
@@ -93,6 +106,9 @@
     <t>Cargo</t>
   </si>
   <si>
+    <t>貨物</t>
+  </si>
+  <si>
     <t>不明</t>
   </si>
   <si>
@@ -102,7 +118,7 @@
     <t>BookCargoCommand</t>
   </si>
   <si>
-    <t>Book Cargo Command class</t>
+    <t>貨物予約</t>
   </si>
   <si>
     <t>[BookCargoCommandDTOAssembler, Cargo, CargoBookingCommandService, CargoBookingController]</t>
@@ -111,7 +127,7 @@
     <t>RouteCargoCommand</t>
   </si>
   <si>
-    <t>Command Class to assign a route to a booked cargo</t>
+    <t>貨物経路</t>
   </si>
   <si>
     <t>[CargoBookingCommandService, CargoRoutingController, RouteCargoCommandDTOAssembler]</t>
@@ -120,7 +136,8 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Location class represented by a unique 5-diigit UN Location code.</t>
+    <t xml:space="preserve">位置+</t>
   </si>
   <si>
     <t>[Cargo, CargoHandlingActivity, Delivery, ExternalCargoRoutingService, Leg, RouteSpecification]</t>
@@ -129,7 +146,7 @@
     <t>BookingAmount</t>
   </si>
   <si>
-    <t xml:space="preserve">Domain model representation of the Booking Amount for a new Cargo.+    <t xml:space="preserve">予約数量 </t>
   </si>
   <si>
@@ -142,7 +159,7 @@
     <t>CargoHandlingActivity</t>
   </si>
   <si>
-    <t xml:space="preserve">A handling activity represents how and where a cargo can be handled, and can+    <t xml:space="preserve">荷役 </t>
   </si>
   <si>
@@ -155,6 +172,9 @@
     <t>CargoItinerary</t>
   </si>
   <si>
+    <t>貨物旅程</t>
+  </si>
+  <si>
     <t>コレクション</t>
   </si>
   <si>
@@ -164,34 +184,53 @@
     <t>Delivery</t>
   </si>
   <si>
+    <t xml:space="preserve">配送+</t>
+  </si>
+  <si>
     <t>LastCargoHandledEvent</t>
   </si>
   <si>
+    <t>最終荷役イベント</t>
+  </si>
+  <si>
     <t>[Cargo, Delivery]</t>
   </si>
   <si>
     <t>Leg</t>
   </si>
   <si>
+    <t>旅程</t>
+  </si>
+  <si>
     <t>[CargoItinerary, ExternalCargoRoutingService]</t>
   </si>
   <si>
     <t>RouteSpecification</t>
   </si>
   <si>
+    <t>貨物のルート仕様</t>
+  </si>
+  <si>
     <t>RoutingStatus</t>
   </si>
   <si>
+    <t>経路ステータス</t>
+  </si>
+  <si>
     <t>区分</t>
   </si>
   <si>
     <t>TransportStatus</t>
   </si>
   <si>
+    <t>輸送ステータス</t>
+  </si>
+  <si>
     <t>Voyage</t>
   </si>
   <si>
-    <t xml:space="preserve"> Class representing the Cargo Voyage</t>
+    <t>航海</t>
   </si>
   <si>
     <t>[CargoHandlingActivity, Delivery, ExternalCargoRoutingService, Leg]</t>
@@ -443,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>2.0</v>
@@ -451,10 +490,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>2.0</v>
@@ -462,10 +501,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>1.0</v>
@@ -473,10 +512,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>10.0</v>
@@ -498,7 +537,7 @@
   <cols>
     <col min="1" max="1" width="55.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.04296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="63.859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.9296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.9296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
@@ -513,31 +552,31 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -545,13 +584,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>1.0</v>
@@ -569,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -577,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>0.0</v>
@@ -601,21 +640,21 @@
         <v>0</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>1.0</v>
@@ -633,21 +672,21 @@
         <v>0</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>0.0</v>
@@ -665,21 +704,21 @@
         <v>0</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>5.0</v>
@@ -697,21 +736,21 @@
         <v>0</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>1.0</v>
@@ -729,21 +768,21 @@
         <v>0</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>1.0</v>
@@ -758,24 +797,24 @@
         <v>0</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>2.0</v>
@@ -793,21 +832,21 @@
         <v>0</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>1.0</v>
@@ -825,21 +864,21 @@
         <v>0</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n" s="0">
         <v>2.0</v>
@@ -857,21 +896,21 @@
         <v>0</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n" s="0">
         <v>1.0</v>
@@ -889,21 +928,21 @@
         <v>0</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n" s="0">
         <v>2.0</v>
@@ -921,21 +960,21 @@
         <v>0</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n" s="0">
         <v>1.0</v>
@@ -950,24 +989,24 @@
         <v>0</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E15" t="n" s="0">
         <v>1.0</v>
@@ -982,24 +1021,24 @@
         <v>0</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>3.0</v>
@@ -1017,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1075,7 @@
   <cols>
     <col min="1" max="1" width="55.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.7421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.9296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="58.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
@@ -1051,54 +1090,54 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>0</v>
@@ -1112,25 +1151,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>0</v>
@@ -1171,51 +1210,51 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1273,7 @@
   <cols>
     <col min="1" max="1" width="55.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.95703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.9296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.09375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="7.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
@@ -1246,91 +1285,91 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +1390,7 @@
     <col min="2" max="2" width="20.04296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="47.94140625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.7421875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="57.84375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="13.9296875" customWidth="true" bestFit="true"/>
@@ -1366,37 +1405,37 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K1" t="s" s="0">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L1" t="s" s="0">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
@@ -1404,16 +1443,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>1.0</v>
@@ -1434,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -1442,16 +1481,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>0.0</v>
@@ -1472,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -1480,16 +1519,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>0.0</v>
@@ -1510,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -1518,16 +1557,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n" s="0">
         <v>0.0</v>
@@ -1548,24 +1587,24 @@
         <v>0</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n" s="0">
         <v>1.0</v>
@@ -1574,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>0</v>
@@ -1591,19 +1630,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F7" t="n" s="0">
         <v>0.0</v>
@@ -1612,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>0</v>
@@ -1624,24 +1663,24 @@
         <v>0</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n" s="0">
         <v>1.0</v>
@@ -1662,24 +1701,24 @@
         <v>0</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F9" t="n" s="0">
         <v>0.0</v>
@@ -1700,24 +1739,24 @@
         <v>0</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n" s="0">
         <v>0.0</v>
@@ -1738,24 +1777,24 @@
         <v>0</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n" s="0">
         <v>0.0</v>
@@ -1776,24 +1815,24 @@
         <v>0</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>1.0</v>
@@ -1814,24 +1853,24 @@
         <v>0</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="D13" t="s" s="0">
-        <v>90</v>
-      </c>
       <c r="E13" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F13" t="n" s="0">
         <v>0.0</v>
@@ -1852,24 +1891,24 @@
         <v>0</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F14" t="n" s="0">
         <v>0.0</v>
@@ -1890,24 +1929,24 @@
         <v>0</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F15" t="n" s="0">
         <v>1.0</v>
@@ -1919,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s" s="0">
         <v>0</v>
@@ -1933,19 +1972,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F16" t="n" s="0">
         <v>1.0</v>
@@ -1957,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s" s="0">
         <v>0</v>
@@ -1971,19 +2010,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F17" t="n" s="0">
         <v>1.0</v>
@@ -1998,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s" s="0">
         <v>0</v>
@@ -2009,19 +2048,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F18" t="n" s="0">
         <v>1.0</v>
@@ -2036,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s" s="0">
         <v>0</v>
@@ -2047,19 +2086,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F19" t="n" s="0">
         <v>0.0</v>
@@ -2080,24 +2119,24 @@
         <v>0</v>
       </c>
       <c r="L19" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F20" t="n" s="0">
         <v>0.0</v>
@@ -2118,24 +2157,24 @@
         <v>0</v>
       </c>
       <c r="L20" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F21" t="n" s="0">
         <v>0.0</v>
@@ -2156,24 +2195,24 @@
         <v>0</v>
       </c>
       <c r="L21" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F22" t="n" s="0">
         <v>0.0</v>
@@ -2194,24 +2233,24 @@
         <v>0</v>
       </c>
       <c r="L22" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F23" t="n" s="0">
         <v>0.0</v>
@@ -2232,24 +2271,24 @@
         <v>0</v>
       </c>
       <c r="L23" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F24" t="n" s="0">
         <v>0.0</v>
@@ -2270,24 +2309,24 @@
         <v>0</v>
       </c>
       <c r="L24" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F25" t="n" s="0">
         <v>0.0</v>
@@ -2308,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
